--- a/_draft/unix-socket-flow.xlsx
+++ b/_draft/unix-socket-flow.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanping/gongmh/blog/_draft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didi/workspace/github/blog/_draft/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1200" windowWidth="28160" windowHeight="15740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TCP" sheetId="1" r:id="rId1"/>
     <sheet name="UDP" sheetId="2" r:id="rId2"/>
+    <sheet name="redis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,9 +28,114 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>SDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alloc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sds header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘h’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sds data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘\0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null terminator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,16 +151,64 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -59,15 +216,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4730,7 +5111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -4757,4 +5138,174 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>